--- a/Documentation/knowledge/tool survey/ThuVien&NgonNgu.xlsx
+++ b/Documentation/knowledge/tool survey/ThuVien&NgonNgu.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\computer_graphic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Project\segmentation\Documentation\knowledge\tool survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52543ECA-5569-45DB-8D19-E617751925F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D315BD-91CE-499B-8468-FB30BA7A8F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADDCD14F-23E6-4301-837D-9858AEF4BD26}"/>
   </bookViews>
@@ -233,12 +233,18 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,6 +315,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,7 +660,7 @@
   <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -793,22 +805,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="55.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>36</v>
       </c>
     </row>
